--- a/Team-Data/2007-08/11-26-2007-08.xlsx
+++ b/Team-Data/2007-08/11-26-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,28 +811,28 @@
         <v>-2.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH2" t="n">
         <v>1</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="n">
         <v>29</v>
@@ -777,37 +844,37 @@
         <v>29</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR2" t="n">
         <v>8</v>
       </c>
       <c r="AS2" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AT2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AW2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX2" t="n">
         <v>2</v>
       </c>
       <c r="AY2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ2" t="n">
         <v>7</v>
@@ -819,7 +886,7 @@
         <v>21</v>
       </c>
       <c r="BC2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-26-2007-08</t>
+          <t>2007-11-26</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -953,13 +1020,13 @@
         <v>12</v>
       </c>
       <c r="AM3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN3" t="n">
         <v>6</v>
       </c>
       <c r="AO3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP3" t="n">
         <v>11</v>
@@ -968,13 +1035,13 @@
         <v>14</v>
       </c>
       <c r="AR3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AS3" t="n">
         <v>4</v>
       </c>
       <c r="AT3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU3" t="n">
         <v>3</v>
@@ -986,13 +1053,13 @@
         <v>3</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY3" t="n">
         <v>17</v>
       </c>
       <c r="AZ3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA3" t="n">
         <v>8</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-26-2007-08</t>
+          <t>2007-11-26</t>
         </is>
       </c>
     </row>
@@ -1108,19 +1175,19 @@
         <v>-2.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG4" t="n">
         <v>17</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
         <v>25</v>
@@ -1129,13 +1196,13 @@
         <v>19</v>
       </c>
       <c r="AK4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN4" t="n">
         <v>5</v>
@@ -1147,13 +1214,13 @@
         <v>17</v>
       </c>
       <c r="AQ4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT4" t="n">
         <v>11</v>
@@ -1162,13 +1229,13 @@
         <v>25</v>
       </c>
       <c r="AV4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AY4" t="n">
         <v>28</v>
@@ -1180,7 +1247,7 @@
         <v>18</v>
       </c>
       <c r="BB4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC4" t="n">
         <v>19</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-26-2007-08</t>
+          <t>2007-11-26</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-10</v>
       </c>
       <c r="AD5" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE5" t="n">
         <v>28</v>
@@ -1305,7 +1372,7 @@
         <v>6</v>
       </c>
       <c r="AI5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ5" t="n">
         <v>3</v>
@@ -1317,34 +1384,34 @@
         <v>23</v>
       </c>
       <c r="AM5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN5" t="n">
         <v>30</v>
       </c>
       <c r="AO5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP5" t="n">
         <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS5" t="n">
         <v>26</v>
       </c>
       <c r="AT5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU5" t="n">
         <v>22</v>
       </c>
       <c r="AV5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW5" t="n">
         <v>7</v>
@@ -1353,7 +1420,7 @@
         <v>19</v>
       </c>
       <c r="AY5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ5" t="n">
         <v>13</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-26-2007-08</t>
+          <t>2007-11-26</t>
         </is>
       </c>
     </row>
@@ -1472,13 +1539,13 @@
         <v>-1.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
         <v>9</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
         <v>11</v>
@@ -1502,7 +1569,7 @@
         <v>11</v>
       </c>
       <c r="AN6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO6" t="n">
         <v>19</v>
@@ -1514,7 +1581,7 @@
         <v>26</v>
       </c>
       <c r="AR6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS6" t="n">
         <v>8</v>
@@ -1523,22 +1590,22 @@
         <v>1</v>
       </c>
       <c r="AU6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV6" t="n">
         <v>13</v>
       </c>
       <c r="AW6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY6" t="n">
         <v>18</v>
       </c>
       <c r="AZ6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA6" t="n">
         <v>23</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-26-2007-08</t>
+          <t>2007-11-26</t>
         </is>
       </c>
     </row>
@@ -1576,61 +1643,61 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>0.643</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H7" t="n">
         <v>48</v>
       </c>
       <c r="I7" t="n">
-        <v>36.8</v>
+        <v>37.1</v>
       </c>
       <c r="J7" t="n">
-        <v>79.59999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.462</v>
+        <v>0.468</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="M7" t="n">
-        <v>17.9</v>
+        <v>17.6</v>
       </c>
       <c r="N7" t="n">
-        <v>0.336</v>
+        <v>0.354</v>
       </c>
       <c r="O7" t="n">
-        <v>22.9</v>
+        <v>22.5</v>
       </c>
       <c r="P7" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.832</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="S7" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T7" t="n">
         <v>42.2</v>
       </c>
       <c r="U7" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V7" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="W7" t="n">
         <v>5.8</v>
@@ -1639,28 +1706,28 @@
         <v>5.8</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>22.9</v>
+        <v>22.5</v>
       </c>
       <c r="AA7" t="n">
         <v>22.1</v>
       </c>
       <c r="AB7" t="n">
-        <v>102.5</v>
+        <v>102.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.4</v>
+        <v>5.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
         <v>7</v>
       </c>
       <c r="AF7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG7" t="n">
         <v>6</v>
@@ -1669,43 +1736,43 @@
         <v>18</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AK7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP7" t="n">
         <v>13</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>12</v>
       </c>
       <c r="AQ7" t="n">
         <v>2</v>
       </c>
       <c r="AR7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT7" t="n">
         <v>17</v>
       </c>
       <c r="AU7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV7" t="n">
         <v>3</v>
@@ -1717,19 +1784,19 @@
         <v>3</v>
       </c>
       <c r="AY7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA7" t="n">
         <v>16</v>
       </c>
       <c r="BB7" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BC7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-26-2007-08</t>
+          <t>2007-11-26</t>
         </is>
       </c>
     </row>
@@ -1836,16 +1903,16 @@
         <v>5.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>7</v>
       </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
         <v>18</v>
@@ -1866,10 +1933,10 @@
         <v>6</v>
       </c>
       <c r="AN8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP8" t="n">
         <v>2</v>
@@ -1878,19 +1945,19 @@
         <v>16</v>
       </c>
       <c r="AR8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS8" t="n">
         <v>2</v>
       </c>
       <c r="AT8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU8" t="n">
         <v>5</v>
       </c>
       <c r="AV8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1905,13 +1972,13 @@
         <v>17</v>
       </c>
       <c r="BA8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB8" t="n">
         <v>5</v>
       </c>
       <c r="BC8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-26-2007-08</t>
+          <t>2007-11-26</t>
         </is>
       </c>
     </row>
@@ -2018,13 +2085,13 @@
         <v>3.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
         <v>9</v>
       </c>
       <c r="AF9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG9" t="n">
         <v>10</v>
@@ -2036,19 +2103,19 @@
         <v>16</v>
       </c>
       <c r="AJ9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK9" t="n">
         <v>10</v>
       </c>
       <c r="AL9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM9" t="n">
         <v>21</v>
       </c>
       <c r="AN9" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AO9" t="n">
         <v>18</v>
@@ -2057,7 +2124,7 @@
         <v>18</v>
       </c>
       <c r="AQ9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR9" t="n">
         <v>14</v>
@@ -2066,7 +2133,7 @@
         <v>24</v>
       </c>
       <c r="AT9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AU9" t="n">
         <v>4</v>
@@ -2093,7 +2160,7 @@
         <v>18</v>
       </c>
       <c r="BC9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-26-2007-08</t>
+          <t>2007-11-26</t>
         </is>
       </c>
     </row>
@@ -2122,97 +2189,97 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
         <v>7</v>
       </c>
       <c r="G10" t="n">
-        <v>0.462</v>
+        <v>0.417</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>40.5</v>
+        <v>39.6</v>
       </c>
       <c r="J10" t="n">
-        <v>88.8</v>
+        <v>87.8</v>
       </c>
       <c r="K10" t="n">
-        <v>0.456</v>
+        <v>0.451</v>
       </c>
       <c r="L10" t="n">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="M10" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="N10" t="n">
-        <v>0.351</v>
+        <v>0.341</v>
       </c>
       <c r="O10" t="n">
-        <v>18.2</v>
+        <v>18.8</v>
       </c>
       <c r="P10" t="n">
-        <v>26.8</v>
+        <v>27.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.679</v>
+        <v>0.678</v>
       </c>
       <c r="R10" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S10" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="T10" t="n">
-        <v>41.2</v>
+        <v>41.4</v>
       </c>
       <c r="U10" t="n">
-        <v>22.3</v>
+        <v>21.6</v>
       </c>
       <c r="V10" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="W10" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="X10" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>23.4</v>
+        <v>23.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.7</v>
+        <v>107</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.2</v>
+        <v>-2.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AF10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AH10" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2224,25 +2291,25 @@
         <v>13</v>
       </c>
       <c r="AL10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM10" t="n">
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AO10" t="n">
         <v>16</v>
       </c>
       <c r="AP10" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AQ10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS10" t="n">
         <v>27</v>
@@ -2251,25 +2318,25 @@
         <v>22</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AV10" t="n">
         <v>5</v>
       </c>
       <c r="AW10" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AX10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY10" t="n">
         <v>21</v>
       </c>
       <c r="AZ10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BB10" t="n">
         <v>2</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-26-2007-08</t>
+          <t>2007-11-26</t>
         </is>
       </c>
     </row>
@@ -2304,25 +2371,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
         <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>0.533</v>
+        <v>0.5</v>
       </c>
       <c r="H11" t="n">
         <v>48</v>
       </c>
       <c r="I11" t="n">
-        <v>36.1</v>
+        <v>36.4</v>
       </c>
       <c r="J11" t="n">
-        <v>82.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K11" t="n">
         <v>0.436</v>
@@ -2331,64 +2398,64 @@
         <v>6.1</v>
       </c>
       <c r="M11" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="N11" t="n">
-        <v>0.308</v>
+        <v>0.307</v>
       </c>
       <c r="O11" t="n">
-        <v>16.8</v>
+        <v>16.6</v>
       </c>
       <c r="P11" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.739</v>
+        <v>0.726</v>
       </c>
       <c r="R11" t="n">
-        <v>13.1</v>
+        <v>13.4</v>
       </c>
       <c r="S11" t="n">
-        <v>31.5</v>
+        <v>30.8</v>
       </c>
       <c r="T11" t="n">
-        <v>44.5</v>
+        <v>44.2</v>
       </c>
       <c r="U11" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V11" t="n">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="W11" t="n">
         <v>7.9</v>
       </c>
       <c r="X11" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>95.09999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="AD11" t="n">
         <v>3</v>
       </c>
       <c r="AE11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG11" t="n">
         <v>13</v>
@@ -2397,7 +2464,7 @@
         <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ11" t="n">
         <v>9</v>
@@ -2406,49 +2473,49 @@
         <v>23</v>
       </c>
       <c r="AL11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN11" t="n">
         <v>28</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS11" t="n">
         <v>17</v>
       </c>
-      <c r="AR11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>12</v>
-      </c>
       <c r="AT11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AU11" t="n">
         <v>17</v>
       </c>
       <c r="AV11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AY11" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA11" t="n">
         <v>20</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-26-2007-08</t>
+          <t>2007-11-26</t>
         </is>
       </c>
     </row>
@@ -2564,16 +2631,16 @@
         <v>-2.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF12" t="n">
         <v>21</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH12" t="n">
         <v>12</v>
@@ -2594,46 +2661,46 @@
         <v>4</v>
       </c>
       <c r="AN12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO12" t="n">
         <v>13</v>
       </c>
       <c r="AP12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ12" t="n">
         <v>15</v>
       </c>
       <c r="AR12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS12" t="n">
         <v>9</v>
       </c>
       <c r="AT12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AU12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ12" t="n">
         <v>30</v>
       </c>
       <c r="BA12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-26-2007-08</t>
+          <t>2007-11-26</t>
         </is>
       </c>
     </row>
@@ -2668,160 +2735,160 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" t="n">
         <v>6</v>
       </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>0.462</v>
+        <v>0.5</v>
       </c>
       <c r="H13" t="n">
         <v>48</v>
       </c>
       <c r="I13" t="n">
-        <v>33.1</v>
+        <v>33.8</v>
       </c>
       <c r="J13" t="n">
-        <v>79.5</v>
+        <v>79.8</v>
       </c>
       <c r="K13" t="n">
-        <v>0.416</v>
+        <v>0.423</v>
       </c>
       <c r="L13" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="M13" t="n">
-        <v>16.7</v>
+        <v>17.1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.364</v>
+        <v>0.371</v>
       </c>
       <c r="O13" t="n">
-        <v>22.2</v>
+        <v>22.5</v>
       </c>
       <c r="P13" t="n">
-        <v>28.2</v>
+        <v>28.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.785</v>
+        <v>0.789</v>
       </c>
       <c r="R13" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S13" t="n">
-        <v>33.2</v>
+        <v>33.6</v>
       </c>
       <c r="T13" t="n">
-        <v>43.9</v>
+        <v>44.4</v>
       </c>
       <c r="U13" t="n">
-        <v>20</v>
+        <v>20.7</v>
       </c>
       <c r="V13" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="W13" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="X13" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.40000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="AC13" t="n">
-        <v>-4.5</v>
+        <v>-3.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG13" t="n">
         <v>13</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>17</v>
       </c>
       <c r="AH13" t="n">
         <v>18</v>
       </c>
       <c r="AI13" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AJ13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK13" t="n">
         <v>28</v>
       </c>
       <c r="AL13" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AM13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AN13" t="n">
         <v>10</v>
       </c>
       <c r="AO13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP13" t="n">
         <v>7</v>
       </c>
-      <c r="AP13" t="n">
-        <v>8</v>
-      </c>
       <c r="AQ13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS13" t="n">
         <v>5</v>
       </c>
-      <c r="AR13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AS13" t="n">
+      <c r="AT13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AX13" t="n">
         <v>6</v>
       </c>
-      <c r="AT13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>20</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>9</v>
-      </c>
       <c r="AY13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA13" t="n">
         <v>17</v>
       </c>
       <c r="BB13" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="BC13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-26-2007-08</t>
+          <t>2007-11-26</t>
         </is>
       </c>
     </row>
@@ -2928,13 +2995,13 @@
         <v>4.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG14" t="n">
         <v>12</v>
@@ -2946,7 +3013,7 @@
         <v>13</v>
       </c>
       <c r="AJ14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK14" t="n">
         <v>6</v>
@@ -2958,7 +3025,7 @@
         <v>12</v>
       </c>
       <c r="AN14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO14" t="n">
         <v>1</v>
@@ -2967,19 +3034,19 @@
         <v>1</v>
       </c>
       <c r="AQ14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AR14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS14" t="n">
         <v>3</v>
       </c>
       <c r="AT14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV14" t="n">
         <v>21</v>
@@ -2988,7 +3055,7 @@
         <v>4</v>
       </c>
       <c r="AX14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY14" t="n">
         <v>13</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-26-2007-08</t>
+          <t>2007-11-26</t>
         </is>
       </c>
     </row>
@@ -3110,19 +3177,19 @@
         <v>-3.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI15" t="n">
         <v>8</v>
@@ -3131,10 +3198,10 @@
         <v>16</v>
       </c>
       <c r="AK15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM15" t="n">
         <v>5</v>
@@ -3143,22 +3210,22 @@
         <v>4</v>
       </c>
       <c r="AO15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP15" t="n">
         <v>10</v>
       </c>
       <c r="AQ15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR15" t="n">
         <v>21</v>
       </c>
       <c r="AS15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AT15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU15" t="n">
         <v>14</v>
@@ -3167,13 +3234,13 @@
         <v>22</v>
       </c>
       <c r="AW15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ15" t="n">
         <v>6</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-26-2007-08</t>
+          <t>2007-11-26</t>
         </is>
       </c>
     </row>
@@ -3292,10 +3359,10 @@
         <v>-5</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF16" t="n">
         <v>27</v>
@@ -3307,10 +3374,10 @@
         <v>18</v>
       </c>
       <c r="AI16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>27</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>28</v>
       </c>
       <c r="AK16" t="n">
         <v>22</v>
@@ -3334,7 +3401,7 @@
         <v>30</v>
       </c>
       <c r="AR16" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AS16" t="n">
         <v>23</v>
@@ -3349,10 +3416,10 @@
         <v>9</v>
       </c>
       <c r="AW16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY16" t="n">
         <v>3</v>
@@ -3367,7 +3434,7 @@
         <v>29</v>
       </c>
       <c r="BC16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-26-2007-08</t>
+          <t>2007-11-26</t>
         </is>
       </c>
     </row>
@@ -3474,16 +3541,16 @@
         <v>-0.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF17" t="n">
         <v>5</v>
       </c>
       <c r="AG17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH17" t="n">
         <v>18</v>
@@ -3492,7 +3559,7 @@
         <v>12</v>
       </c>
       <c r="AJ17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK17" t="n">
         <v>11</v>
@@ -3504,7 +3571,7 @@
         <v>27</v>
       </c>
       <c r="AN17" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AO17" t="n">
         <v>17</v>
@@ -3513,10 +3580,10 @@
         <v>19</v>
       </c>
       <c r="AQ17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS17" t="n">
         <v>18</v>
@@ -3525,16 +3592,16 @@
         <v>12</v>
       </c>
       <c r="AU17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW17" t="n">
         <v>25</v>
       </c>
       <c r="AX17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY17" t="n">
         <v>27</v>
@@ -3549,7 +3616,7 @@
         <v>17</v>
       </c>
       <c r="BC17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-26-2007-08</t>
+          <t>2007-11-26</t>
         </is>
       </c>
     </row>
@@ -3578,115 +3645,115 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>0.167</v>
+        <v>0.091</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
       </c>
       <c r="I18" t="n">
-        <v>36.3</v>
+        <v>36</v>
       </c>
       <c r="J18" t="n">
-        <v>81.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.446</v>
+        <v>0.44</v>
       </c>
       <c r="L18" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M18" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="N18" t="n">
-        <v>0.377</v>
+        <v>0.371</v>
       </c>
       <c r="O18" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="P18" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.719</v>
+        <v>0.717</v>
       </c>
       <c r="R18" t="n">
-        <v>12</v>
+        <v>12.8</v>
       </c>
       <c r="S18" t="n">
-        <v>28.8</v>
+        <v>28.5</v>
       </c>
       <c r="T18" t="n">
-        <v>40.8</v>
+        <v>41.3</v>
       </c>
       <c r="U18" t="n">
-        <v>19.4</v>
+        <v>18.9</v>
       </c>
       <c r="V18" t="n">
         <v>16.2</v>
       </c>
       <c r="W18" t="n">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="X18" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="Z18" t="n">
         <v>25.7</v>
       </c>
       <c r="AA18" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>93.40000000000001</v>
+        <v>92.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>-7.1</v>
+        <v>-8.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AE18" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AF18" t="n">
         <v>27</v>
       </c>
       <c r="AG18" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AH18" t="n">
         <v>18</v>
       </c>
       <c r="AI18" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK18" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AL18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3695,40 +3762,40 @@
         <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR18" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AS18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT18" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AU18" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AV18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW18" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AX18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY18" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ18" t="n">
         <v>29</v>
       </c>
       <c r="BA18" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BB18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-26-2007-08</t>
+          <t>2007-11-26</t>
         </is>
       </c>
     </row>
@@ -3838,16 +3905,16 @@
         <v>-6.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG19" t="n">
         <v>13</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>14</v>
       </c>
       <c r="AH19" t="n">
         <v>12</v>
@@ -3862,34 +3929,34 @@
         <v>29</v>
       </c>
       <c r="AL19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM19" t="n">
         <v>17</v>
       </c>
       <c r="AN19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO19" t="n">
         <v>8</v>
       </c>
       <c r="AP19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR19" t="n">
         <v>22</v>
       </c>
       <c r="AS19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT19" t="n">
         <v>27</v>
       </c>
       <c r="AU19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV19" t="n">
         <v>29</v>
@@ -3898,22 +3965,22 @@
         <v>24</v>
       </c>
       <c r="AX19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ19" t="n">
         <v>28</v>
       </c>
       <c r="BA19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB19" t="n">
         <v>28</v>
       </c>
       <c r="BC19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-26-2007-08</t>
+          <t>2007-11-26</t>
         </is>
       </c>
     </row>
@@ -3942,82 +4009,82 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G20" t="n">
-        <v>0.625</v>
+        <v>0.667</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>36.3</v>
+        <v>36.6</v>
       </c>
       <c r="J20" t="n">
-        <v>81.2</v>
+        <v>81.7</v>
       </c>
       <c r="K20" t="n">
-        <v>0.446</v>
+        <v>0.448</v>
       </c>
       <c r="L20" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M20" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.396</v>
+        <v>0.402</v>
       </c>
       <c r="O20" t="n">
-        <v>15.7</v>
+        <v>15.1</v>
       </c>
       <c r="P20" t="n">
-        <v>19.9</v>
+        <v>19.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.789</v>
+        <v>0.785</v>
       </c>
       <c r="R20" t="n">
-        <v>10.3</v>
+        <v>10.7</v>
       </c>
       <c r="S20" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="T20" t="n">
-        <v>41.5</v>
+        <v>42</v>
       </c>
       <c r="U20" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V20" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="W20" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X20" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Y20" t="n">
         <v>3.9</v>
       </c>
-      <c r="Y20" t="n">
-        <v>3.8</v>
-      </c>
       <c r="Z20" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.5</v>
+        <v>19.1</v>
       </c>
       <c r="AB20" t="n">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="AC20" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -4026,10 +4093,10 @@
         <v>5</v>
       </c>
       <c r="AF20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AH20" t="n">
         <v>16</v>
@@ -4053,37 +4120,37 @@
         <v>3</v>
       </c>
       <c r="AO20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS20" t="n">
         <v>14</v>
       </c>
       <c r="AT20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AU20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AV20" t="n">
         <v>6</v>
       </c>
       <c r="AW20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ20" t="n">
         <v>3</v>
@@ -4095,7 +4162,7 @@
         <v>19</v>
       </c>
       <c r="BC20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-26-2007-08</t>
+          <t>2007-11-26</t>
         </is>
       </c>
     </row>
@@ -4124,115 +4191,115 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21" t="n">
         <v>9</v>
       </c>
       <c r="G21" t="n">
-        <v>0.308</v>
+        <v>0.25</v>
       </c>
       <c r="H21" t="n">
         <v>48.8</v>
       </c>
       <c r="I21" t="n">
-        <v>35.5</v>
+        <v>34.9</v>
       </c>
       <c r="J21" t="n">
-        <v>81.59999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="K21" t="n">
-        <v>0.434</v>
+        <v>0.427</v>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="M21" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.323</v>
+        <v>0.315</v>
       </c>
       <c r="O21" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="P21" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.713</v>
+        <v>0.703</v>
       </c>
       <c r="R21" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="S21" t="n">
-        <v>31.1</v>
+        <v>31.9</v>
       </c>
       <c r="T21" t="n">
-        <v>44.5</v>
+        <v>45.6</v>
       </c>
       <c r="U21" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="V21" t="n">
         <v>17.6</v>
       </c>
-      <c r="V21" t="n">
-        <v>17.3</v>
-      </c>
       <c r="W21" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="X21" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="Z21" t="n">
         <v>23.3</v>
       </c>
       <c r="AA21" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="AB21" t="n">
-        <v>95.8</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-6.5</v>
+        <v>-7.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL21" t="n">
         <v>25</v>
       </c>
-      <c r="AL21" t="n">
+      <c r="AM21" t="n">
         <v>23</v>
       </c>
-      <c r="AM21" t="n">
-        <v>22</v>
-      </c>
       <c r="AN21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO21" t="n">
         <v>14</v>
@@ -4241,43 +4308,43 @@
         <v>9</v>
       </c>
       <c r="AQ21" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AR21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AS21" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AT21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU21" t="n">
         <v>29</v>
       </c>
       <c r="AV21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB21" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BC21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-26-2007-08</t>
+          <t>2007-11-26</t>
         </is>
       </c>
     </row>
@@ -4306,67 +4373,67 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" t="n">
         <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="J22" t="n">
-        <v>77.8</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.469</v>
+        <v>0.473</v>
       </c>
       <c r="L22" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="M22" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="N22" t="n">
-        <v>0.358</v>
+        <v>0.365</v>
       </c>
       <c r="O22" t="n">
-        <v>20.9</v>
+        <v>21.5</v>
       </c>
       <c r="P22" t="n">
-        <v>29.1</v>
+        <v>29.9</v>
       </c>
       <c r="Q22" t="n">
         <v>0.717</v>
       </c>
       <c r="R22" t="n">
-        <v>8.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="S22" t="n">
-        <v>34.5</v>
+        <v>34.3</v>
       </c>
       <c r="T22" t="n">
-        <v>43.2</v>
+        <v>42.8</v>
       </c>
       <c r="U22" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V22" t="n">
         <v>14.5</v>
       </c>
       <c r="W22" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="X22" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y22" t="n">
         <v>3.4</v>
@@ -4375,13 +4442,13 @@
         <v>19.7</v>
       </c>
       <c r="AA22" t="n">
-        <v>24.3</v>
+        <v>24.7</v>
       </c>
       <c r="AB22" t="n">
-        <v>102.9</v>
+        <v>104.1</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -4390,10 +4457,10 @@
         <v>1</v>
       </c>
       <c r="AF22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH22" t="n">
         <v>16</v>
@@ -4402,46 +4469,46 @@
         <v>17</v>
       </c>
       <c r="AJ22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK22" t="n">
         <v>5</v>
       </c>
       <c r="AL22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM22" t="n">
         <v>2</v>
       </c>
       <c r="AN22" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AO22" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AP22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AQ22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR22" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AS22" t="n">
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU22" t="n">
         <v>13</v>
       </c>
       <c r="AV22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW22" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AX22" t="n">
         <v>25</v>
@@ -4450,16 +4517,16 @@
         <v>2</v>
       </c>
       <c r="AZ22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC22" t="n">
         <v>5</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>8</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>4</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-26-2007-08</t>
+          <t>2007-11-26</t>
         </is>
       </c>
     </row>
@@ -4566,16 +4633,16 @@
         <v>-3.9</v>
       </c>
       <c r="AD23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE23" t="n">
         <v>25</v>
       </c>
-      <c r="AE23" t="n">
-        <v>26</v>
-      </c>
       <c r="AF23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
         <v>6</v>
@@ -4584,10 +4651,10 @@
         <v>26</v>
       </c>
       <c r="AJ23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL23" t="n">
         <v>28</v>
@@ -4599,7 +4666,7 @@
         <v>23</v>
       </c>
       <c r="AO23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP23" t="n">
         <v>21</v>
@@ -4608,19 +4675,19 @@
         <v>27</v>
       </c>
       <c r="AR23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AV23" t="n">
         <v>27</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>28</v>
       </c>
       <c r="AW23" t="n">
         <v>21</v>
@@ -4641,7 +4708,7 @@
         <v>27</v>
       </c>
       <c r="BC23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-26-2007-08</t>
+          <t>2007-11-26</t>
         </is>
       </c>
     </row>
@@ -4670,85 +4737,85 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" t="n">
         <v>11</v>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>0.786</v>
+        <v>0.846</v>
       </c>
       <c r="H24" t="n">
         <v>48</v>
       </c>
       <c r="I24" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="J24" t="n">
-        <v>85.2</v>
+        <v>85</v>
       </c>
       <c r="K24" t="n">
         <v>0.485</v>
       </c>
       <c r="L24" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="M24" t="n">
-        <v>24.1</v>
+        <v>24.5</v>
       </c>
       <c r="N24" t="n">
-        <v>0.373</v>
+        <v>0.37</v>
       </c>
       <c r="O24" t="n">
-        <v>17.1</v>
+        <v>16.9</v>
       </c>
       <c r="P24" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.779</v>
+        <v>0.775</v>
       </c>
       <c r="R24" t="n">
-        <v>9.1</v>
+        <v>8.6</v>
       </c>
       <c r="S24" t="n">
         <v>33.4</v>
       </c>
       <c r="T24" t="n">
-        <v>42.4</v>
+        <v>42</v>
       </c>
       <c r="U24" t="n">
-        <v>25.4</v>
+        <v>24.9</v>
       </c>
       <c r="V24" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="W24" t="n">
-        <v>8.699999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="X24" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="Y24" t="n">
         <v>3.9</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>108.9</v>
+        <v>108.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>6.3</v>
+        <v>7.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
         <v>3</v>
@@ -4757,7 +4824,7 @@
         <v>2</v>
       </c>
       <c r="AG24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH24" t="n">
         <v>18</v>
@@ -4772,46 +4839,46 @@
         <v>3</v>
       </c>
       <c r="AL24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM24" t="n">
         <v>3</v>
       </c>
       <c r="AN24" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP24" t="n">
         <v>25</v>
       </c>
       <c r="AQ24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT24" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AU24" t="n">
         <v>2</v>
       </c>
       <c r="AV24" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AW24" t="n">
         <v>5</v>
       </c>
       <c r="AX24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY24" t="n">
         <v>5</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>6</v>
       </c>
       <c r="AZ24" t="n">
         <v>2</v>
@@ -4823,7 +4890,7 @@
         <v>1</v>
       </c>
       <c r="BC24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-26-2007-08</t>
+          <t>2007-11-26</t>
         </is>
       </c>
     </row>
@@ -4852,91 +4919,91 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25" t="n">
         <v>5</v>
       </c>
       <c r="F25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G25" t="n">
-        <v>0.357</v>
+        <v>0.385</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>35.1</v>
+        <v>35.3</v>
       </c>
       <c r="J25" t="n">
-        <v>76.40000000000001</v>
+        <v>76</v>
       </c>
       <c r="K25" t="n">
-        <v>0.459</v>
+        <v>0.465</v>
       </c>
       <c r="L25" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="M25" t="n">
         <v>15.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.36</v>
+        <v>0.372</v>
       </c>
       <c r="O25" t="n">
-        <v>16.6</v>
+        <v>17.4</v>
       </c>
       <c r="P25" t="n">
-        <v>22.7</v>
+        <v>23.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.733</v>
+        <v>0.741</v>
       </c>
       <c r="R25" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="S25" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T25" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="U25" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="V25" t="n">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
       <c r="W25" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="X25" t="n">
         <v>4.1</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="AA25" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="AB25" t="n">
-        <v>92.2</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>-4.9</v>
+        <v>-4.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF25" t="n">
         <v>21</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>22</v>
       </c>
       <c r="AG25" t="n">
         <v>22</v>
@@ -4945,34 +5012,34 @@
         <v>18</v>
       </c>
       <c r="AI25" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AJ25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK25" t="n">
         <v>9</v>
       </c>
       <c r="AL25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM25" t="n">
         <v>24</v>
       </c>
       <c r="AN25" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AP25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS25" t="n">
         <v>25</v>
@@ -4981,13 +5048,13 @@
         <v>29</v>
       </c>
       <c r="AU25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV25" t="n">
         <v>18</v>
       </c>
       <c r="AW25" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AX25" t="n">
         <v>26</v>
@@ -4996,16 +5063,16 @@
         <v>1</v>
       </c>
       <c r="AZ25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA25" t="n">
         <v>14</v>
       </c>
       <c r="BB25" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BC25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-26-2007-08</t>
+          <t>2007-11-26</t>
         </is>
       </c>
     </row>
@@ -5034,103 +5101,103 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
         <v>9</v>
       </c>
       <c r="G26" t="n">
-        <v>0.357</v>
+        <v>0.308</v>
       </c>
       <c r="H26" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I26" t="n">
-        <v>35.4</v>
+        <v>34.8</v>
       </c>
       <c r="J26" t="n">
         <v>77.7</v>
       </c>
       <c r="K26" t="n">
-        <v>0.456</v>
+        <v>0.449</v>
       </c>
       <c r="L26" t="n">
         <v>5.3</v>
       </c>
       <c r="M26" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.344</v>
+        <v>0.34</v>
       </c>
       <c r="O26" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="P26" t="n">
-        <v>29.3</v>
+        <v>29.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.805</v>
+        <v>0.798</v>
       </c>
       <c r="R26" t="n">
-        <v>9.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="S26" t="n">
-        <v>29</v>
+        <v>28.5</v>
       </c>
       <c r="T26" t="n">
-        <v>38.2</v>
+        <v>37.9</v>
       </c>
       <c r="U26" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="V26" t="n">
-        <v>15.8</v>
+        <v>16.2</v>
       </c>
       <c r="W26" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X26" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>24.9</v>
+        <v>25.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.7</v>
+        <v>98.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>-4.4</v>
+        <v>-5.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH26" t="n">
         <v>3</v>
       </c>
       <c r="AI26" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK26" t="n">
         <v>14</v>
@@ -5139,25 +5206,25 @@
         <v>22</v>
       </c>
       <c r="AM26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO26" t="n">
         <v>2</v>
       </c>
       <c r="AP26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ26" t="n">
         <v>3</v>
       </c>
       <c r="AR26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS26" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AT26" t="n">
         <v>30</v>
@@ -5166,28 +5233,28 @@
         <v>30</v>
       </c>
       <c r="AV26" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AW26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX26" t="n">
         <v>29</v>
       </c>
       <c r="AY26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA26" t="n">
         <v>1</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-26-2007-08</t>
+          <t>2007-11-26</t>
         </is>
       </c>
     </row>
@@ -5216,58 +5283,58 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27" t="n">
         <v>12</v>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8</v>
+        <v>0.857</v>
       </c>
       <c r="H27" t="n">
         <v>48</v>
       </c>
       <c r="I27" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J27" t="n">
-        <v>80.5</v>
+        <v>80</v>
       </c>
       <c r="K27" t="n">
-        <v>0.475</v>
+        <v>0.477</v>
       </c>
       <c r="L27" t="n">
         <v>8.1</v>
       </c>
       <c r="M27" t="n">
-        <v>20.1</v>
+        <v>19.8</v>
       </c>
       <c r="N27" t="n">
-        <v>0.404</v>
+        <v>0.408</v>
       </c>
       <c r="O27" t="n">
-        <v>16.3</v>
+        <v>16.6</v>
       </c>
       <c r="P27" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.763</v>
+        <v>0.774</v>
       </c>
       <c r="R27" t="n">
-        <v>9.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S27" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T27" t="n">
-        <v>40.9</v>
+        <v>40.7</v>
       </c>
       <c r="U27" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V27" t="n">
         <v>12.1</v>
@@ -5276,34 +5343,34 @@
         <v>6.9</v>
       </c>
       <c r="X27" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AA27" t="n">
         <v>18.9</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="AC27" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AD27" t="n">
         <v>3</v>
       </c>
       <c r="AE27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF27" t="n">
         <v>2</v>
       </c>
       <c r="AG27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH27" t="n">
         <v>18</v>
@@ -5312,13 +5379,13 @@
         <v>4</v>
       </c>
       <c r="AJ27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK27" t="n">
         <v>4</v>
       </c>
       <c r="AL27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM27" t="n">
         <v>9</v>
@@ -5327,22 +5394,22 @@
         <v>2</v>
       </c>
       <c r="AO27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP27" t="n">
         <v>26</v>
       </c>
-      <c r="AP27" t="n">
-        <v>27</v>
-      </c>
       <c r="AQ27" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AR27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS27" t="n">
         <v>13</v>
       </c>
       <c r="AT27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU27" t="n">
         <v>7</v>
@@ -5351,19 +5418,19 @@
         <v>1</v>
       </c>
       <c r="AW27" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AX27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY27" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ27" t="n">
         <v>1</v>
       </c>
       <c r="BA27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB27" t="n">
         <v>13</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-26-2007-08</t>
+          <t>2007-11-26</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-8.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
         <v>28</v>
@@ -5485,10 +5552,10 @@
         <v>30</v>
       </c>
       <c r="AG28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI28" t="n">
         <v>5</v>
@@ -5497,7 +5564,7 @@
         <v>4</v>
       </c>
       <c r="AK28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL28" t="n">
         <v>26</v>
@@ -5506,7 +5573,7 @@
         <v>29</v>
       </c>
       <c r="AN28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO28" t="n">
         <v>15</v>
@@ -5515,7 +5582,7 @@
         <v>20</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
         <v>15</v>
@@ -5527,16 +5594,16 @@
         <v>10</v>
       </c>
       <c r="AU28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV28" t="n">
         <v>29</v>
       </c>
       <c r="AW28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY28" t="n">
         <v>18</v>
@@ -5548,7 +5615,7 @@
         <v>22</v>
       </c>
       <c r="BB28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC28" t="n">
         <v>29</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-26-2007-08</t>
+          <t>2007-11-26</t>
         </is>
       </c>
     </row>
@@ -5658,28 +5725,28 @@
         <v>3.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF29" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG29" t="n">
         <v>13</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>14</v>
       </c>
       <c r="AH29" t="n">
         <v>12</v>
       </c>
       <c r="AI29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ29" t="n">
         <v>8</v>
       </c>
       <c r="AK29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL29" t="n">
         <v>4</v>
@@ -5694,7 +5761,7 @@
         <v>24</v>
       </c>
       <c r="AP29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5715,25 +5782,25 @@
         <v>4</v>
       </c>
       <c r="AW29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY29" t="n">
         <v>18</v>
       </c>
       <c r="AZ29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA29" t="n">
         <v>28</v>
       </c>
       <c r="BB29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-26-2007-08</t>
+          <t>2007-11-26</t>
         </is>
       </c>
     </row>
@@ -5762,82 +5829,82 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G30" t="n">
-        <v>0.667</v>
+        <v>0.714</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>39.6</v>
+        <v>39.4</v>
       </c>
       <c r="J30" t="n">
-        <v>81.09999999999999</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.488</v>
+        <v>0.487</v>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M30" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="O30" t="n">
+        <v>23</v>
+      </c>
+      <c r="P30" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="R30" t="n">
         <v>11.6</v>
       </c>
-      <c r="N30" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="O30" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="P30" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0.762</v>
-      </c>
-      <c r="R30" t="n">
-        <v>12.1</v>
-      </c>
       <c r="S30" t="n">
-        <v>30.1</v>
+        <v>30.6</v>
       </c>
       <c r="T30" t="n">
         <v>42.2</v>
       </c>
       <c r="U30" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="V30" t="n">
-        <v>16.9</v>
+        <v>17.1</v>
       </c>
       <c r="W30" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="X30" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="Y30" t="n">
         <v>5.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>23.8</v>
+        <v>24.1</v>
       </c>
       <c r="AA30" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="AB30" t="n">
-        <v>106.1</v>
+        <v>105.9</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="AD30" t="n">
         <v>3</v>
@@ -5846,7 +5913,7 @@
         <v>5</v>
       </c>
       <c r="AF30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG30" t="n">
         <v>5</v>
@@ -5858,7 +5925,7 @@
         <v>3</v>
       </c>
       <c r="AJ30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK30" t="n">
         <v>2</v>
@@ -5870,10 +5937,10 @@
         <v>30</v>
       </c>
       <c r="AN30" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AO30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AP30" t="n">
         <v>3</v>
@@ -5882,25 +5949,25 @@
         <v>13</v>
       </c>
       <c r="AR30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS30" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AT30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY30" t="n">
         <v>26</v>
@@ -5909,7 +5976,7 @@
         <v>27</v>
       </c>
       <c r="BA30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB30" t="n">
         <v>3</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-26-2007-08</t>
+          <t>2007-11-26</t>
         </is>
       </c>
     </row>
@@ -5944,94 +6011,94 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F31" t="n">
         <v>7</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>0.462</v>
       </c>
       <c r="H31" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I31" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J31" t="n">
-        <v>83.8</v>
+        <v>84.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0.446</v>
+        <v>0.442</v>
       </c>
       <c r="L31" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M31" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="N31" t="n">
-        <v>0.328</v>
+        <v>0.325</v>
       </c>
       <c r="O31" t="n">
-        <v>22.5</v>
+        <v>22.2</v>
       </c>
       <c r="P31" t="n">
-        <v>28.9</v>
+        <v>28.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.78</v>
+        <v>0.778</v>
       </c>
       <c r="R31" t="n">
-        <v>13.7</v>
+        <v>14.3</v>
       </c>
       <c r="S31" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T31" t="n">
-        <v>44.7</v>
+        <v>45.2</v>
       </c>
       <c r="U31" t="n">
-        <v>19.4</v>
+        <v>19.8</v>
       </c>
       <c r="V31" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="W31" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="X31" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z31" t="n">
         <v>22</v>
       </c>
       <c r="AA31" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="AB31" t="n">
-        <v>103.1</v>
+        <v>102.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE31" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AF31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG31" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AH31" t="n">
         <v>3</v>
@@ -6043,37 +6110,37 @@
         <v>7</v>
       </c>
       <c r="AK31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL31" t="n">
         <v>18</v>
       </c>
       <c r="AM31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN31" t="n">
         <v>24</v>
       </c>
       <c r="AO31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ31" t="n">
         <v>7</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>6</v>
       </c>
       <c r="AR31" t="n">
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT31" t="n">
         <v>3</v>
       </c>
       <c r="AU31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AV31" t="n">
         <v>12</v>
@@ -6082,22 +6149,22 @@
         <v>6</v>
       </c>
       <c r="AX31" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AY31" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ31" t="n">
         <v>13</v>
       </c>
       <c r="BA31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB31" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BC31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-26-2007-08</t>
+          <t>2007-11-26</t>
         </is>
       </c>
     </row>
